--- a/biology/Médecine/Congestion_active/Congestion_active.xlsx
+++ b/biology/Médecine/Congestion_active/Congestion_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La congestion active (ou hyperhémie (fluxion)) est l'augmentation exagérée du débit sanguin artériel associée à une vasodilatation artérielle et à une dilatation capillaire.
 Cette pathogénie consiste en des mécanismes nerveux et des facteurs vasoactifs d'origine plasma sanguintiques (plasmakinines) ou cellulaires (histamine, sérotonine...).
@@ -512,7 +524,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle peut être :
 Généralisée (rare, cas d'une tumeur du système nerveux central)
@@ -550,7 +564,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La congestion macroscopique : Les organes et tissus sont turgescents et de couleur rouge vif.
 La congestion cutanée ou érythème : Du vivant de l'animal, la rougeur s'efface à la pression et il y a de la chaleur.
@@ -584,7 +600,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la congestion dure, il y a :
 Hyperfonctionnement, hypersécrétion transitoires (inflammation catarrhales)
